--- a/serverxlsx/catalog_nav.xlsx
+++ b/serverxlsx/catalog_nav.xlsx
@@ -131,7 +131,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -144,9 +144,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -451,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -568,11 +565,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
